--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869B0D07-8448-43B2-A34D-D5B8B254DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CACF4C-619E-4FE2-AE58-E67B967F8779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
+    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Synergy_Table" sheetId="1" r:id="rId1"/>
@@ -1462,27 +1462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,6 +1515,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,2482 +1885,2488 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="1" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="2:25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <v>330001</v>
       </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
         <v>320001</v>
       </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
         <v>0.5</v>
       </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <v>0</v>
-      </c>
-      <c r="T6" s="22">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
         <v>910034</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="12">
         <v>900218</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <v>330001</v>
       </c>
-      <c r="F7" s="19">
-        <v>2</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
         <v>3</v>
       </c>
-      <c r="H7" s="19">
-        <v>2</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
         <v>320002</v>
       </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
         <v>0.7</v>
       </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21">
-        <v>0</v>
-      </c>
-      <c r="T7" s="22">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
         <v>910034</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="12">
         <v>900218</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="W7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="X7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Y7" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <v>330002</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
         <v>5</v>
       </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
         <v>3</v>
       </c>
-      <c r="N8" s="22">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="22">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
+      <c r="N8" s="15">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
         <v>910035</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="12">
         <v>900219</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="X8" s="24" t="s">
+      <c r="X8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="Y8" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <v>330002</v>
       </c>
-      <c r="F9" s="19">
-        <v>2</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
         <v>3</v>
       </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
         <v>5</v>
       </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
         <v>5</v>
       </c>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>0</v>
-      </c>
-      <c r="R9" s="21">
-        <v>0</v>
-      </c>
-      <c r="S9" s="21">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
+      <c r="N9" s="15">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
         <v>910035</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="12">
         <v>900219</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Y9" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <v>330003</v>
       </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
-        <v>2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20">
-        <v>2</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2</v>
+      </c>
+      <c r="K10" s="12">
         <v>320008</v>
       </c>
-      <c r="L10" s="21">
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
         <v>0.3</v>
       </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0</v>
-      </c>
-      <c r="R10" s="21">
-        <v>0</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0</v>
-      </c>
-      <c r="T10" s="22">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
         <v>910036</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="12">
         <v>900220</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="W10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="X10" s="24" t="s">
+      <c r="X10" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="12">
         <v>330003</v>
       </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12">
         <v>3</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <v>2</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12">
         <v>320009</v>
       </c>
-      <c r="L11" s="21">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15">
         <v>0.5</v>
       </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="22">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
         <v>910036</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="12">
         <v>900220</v>
       </c>
-      <c r="W11" s="24" t="s">
+      <c r="W11" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="24" t="s">
+      <c r="X11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="19" t="s">
+      <c r="Y11" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="12">
         <v>330004</v>
       </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1</v>
-      </c>
-      <c r="J12" s="20">
-        <v>2</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12">
         <v>320024</v>
       </c>
-      <c r="L12" s="21">
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>0</v>
-      </c>
-      <c r="R12" s="21">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21">
-        <v>0</v>
-      </c>
-      <c r="T12" s="22">
-        <v>0</v>
-      </c>
-      <c r="U12" s="23">
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
         <v>910037</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="12">
         <v>900221</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="W12" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="12">
         <v>330004</v>
       </c>
-      <c r="F13" s="19">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19">
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
         <v>320025</v>
       </c>
-      <c r="L13" s="21">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>1</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>0</v>
-      </c>
-      <c r="R13" s="21">
-        <v>0</v>
-      </c>
-      <c r="S13" s="21">
-        <v>0</v>
-      </c>
-      <c r="T13" s="22">
-        <v>0</v>
-      </c>
-      <c r="U13" s="23">
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
         <v>910037</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="12">
         <v>900221</v>
       </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="X13" s="24" t="s">
+      <c r="X13" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" s="19" t="s">
+      <c r="Y13" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="12">
         <v>330005</v>
       </c>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>2</v>
-      </c>
-      <c r="K14" s="19">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
         <v>320016</v>
       </c>
-      <c r="L14" s="21">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>1</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>0</v>
-      </c>
-      <c r="R14" s="21">
-        <v>0</v>
-      </c>
-      <c r="S14" s="21">
-        <v>0</v>
-      </c>
-      <c r="T14" s="22">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
         <v>910038</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14" s="12">
         <v>900222</v>
       </c>
-      <c r="W14" s="24" t="s">
+      <c r="W14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="Y14" s="19" t="s">
+      <c r="Y14" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>330005</v>
       </c>
-      <c r="F15" s="19">
-        <v>2</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20">
-        <v>2</v>
-      </c>
-      <c r="K15" s="19">
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12">
         <v>320017</v>
       </c>
-      <c r="L15" s="21">
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>1</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>0</v>
-      </c>
-      <c r="R15" s="21">
-        <v>0</v>
-      </c>
-      <c r="S15" s="21">
-        <v>0</v>
-      </c>
-      <c r="T15" s="22">
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
         <v>910038</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="12">
         <v>900222</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Y15" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="12">
         <v>330006</v>
       </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="20">
-        <v>2</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2</v>
+      </c>
+      <c r="K16" s="12">
         <v>320020</v>
       </c>
-      <c r="L16" s="21">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15">
         <v>0.2</v>
       </c>
-      <c r="O16" s="19">
-        <v>0</v>
-      </c>
-      <c r="P16" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
-        <v>0</v>
-      </c>
-      <c r="T16" s="22">
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
         <v>910039</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="12">
         <v>900223</v>
       </c>
-      <c r="W16" s="24" t="s">
+      <c r="W16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="X16" s="24" t="s">
+      <c r="X16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Y16" s="19" t="s">
+      <c r="Y16" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>12</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="12">
         <v>330007</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="20">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
         <v>320006</v>
       </c>
-      <c r="L17" s="21">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15">
         <v>0.3</v>
       </c>
-      <c r="O17" s="19">
-        <v>1</v>
-      </c>
-      <c r="P17" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="21">
+      <c r="O17" s="12">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="14">
         <v>320012</v>
       </c>
-      <c r="R17" s="21">
-        <v>0</v>
-      </c>
-      <c r="S17" s="21">
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
         <v>3</v>
       </c>
-      <c r="T17" s="22">
-        <v>1</v>
-      </c>
-      <c r="U17" s="23">
+      <c r="T17" s="15">
+        <v>1</v>
+      </c>
+      <c r="U17" s="16">
         <v>910040</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="12">
         <v>900224</v>
       </c>
-      <c r="W17" s="24" t="s">
+      <c r="W17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="X17" s="24" t="s">
+      <c r="X17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="Y17" s="19" t="s">
+      <c r="Y17" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="12">
         <v>330007</v>
       </c>
-      <c r="F18" s="19">
-        <v>2</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="F18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12">
         <v>3</v>
       </c>
-      <c r="H18" s="19">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="20">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
         <v>320007</v>
       </c>
-      <c r="L18" s="21">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
         <v>0.6</v>
       </c>
-      <c r="O18" s="19">
-        <v>1</v>
-      </c>
-      <c r="P18" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="21">
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="14">
         <v>320013</v>
       </c>
-      <c r="R18" s="21">
-        <v>0</v>
-      </c>
-      <c r="S18" s="21">
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
         <v>3</v>
       </c>
-      <c r="T18" s="22">
-        <v>1</v>
-      </c>
-      <c r="U18" s="23">
+      <c r="T18" s="15">
+        <v>1</v>
+      </c>
+      <c r="U18" s="16">
         <v>910040</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="12">
         <v>900224</v>
       </c>
-      <c r="W18" s="24" t="s">
+      <c r="W18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="Y18" s="19" t="s">
+      <c r="Y18" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>14</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="12">
         <v>330008</v>
       </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="20">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
         <v>320018</v>
       </c>
-      <c r="L19" s="21">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <v>1</v>
-      </c>
-      <c r="O19" s="19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
-        <v>0</v>
-      </c>
-      <c r="T19" s="22">
-        <v>0</v>
-      </c>
-      <c r="U19" s="23">
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16">
         <v>910041</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="12">
         <v>900225</v>
       </c>
-      <c r="W19" s="24" t="s">
+      <c r="W19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="X19" s="24" t="s">
+      <c r="X19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Y19" s="19" t="s">
+      <c r="Y19" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="12">
         <v>330008</v>
       </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12">
         <v>3</v>
       </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="H20" s="12">
+        <v>2</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
         <v>320019</v>
       </c>
-      <c r="L20" s="21">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>1</v>
-      </c>
-      <c r="O20" s="19">
-        <v>0</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="22">
-        <v>0</v>
-      </c>
-      <c r="U20" s="23">
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
         <v>910041</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="12">
         <v>900225</v>
       </c>
-      <c r="W20" s="24" t="s">
+      <c r="W20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="X20" s="24" t="s">
+      <c r="X20" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="12">
         <v>330009</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <v>0</v>
-      </c>
-      <c r="P21" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="22">
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
         <v>910042</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="12">
         <v>900226</v>
       </c>
-      <c r="W21" s="24" t="s">
+      <c r="W21" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="X21" s="24" t="s">
+      <c r="X21" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Y21" s="19" t="s">
+      <c r="Y21" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>17</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="12">
         <v>330010</v>
       </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20">
-        <v>2</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>2</v>
+      </c>
+      <c r="K22" s="12">
         <v>320021</v>
       </c>
-      <c r="L22" s="21">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
         <v>0.1</v>
       </c>
-      <c r="O22" s="19">
-        <v>0</v>
-      </c>
-      <c r="P22" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <v>0</v>
-      </c>
-      <c r="T22" s="22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="23">
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
         <v>910043</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="12">
         <v>900227</v>
       </c>
-      <c r="W22" s="24" t="s">
+      <c r="W22" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="X22" s="24" t="s">
+      <c r="X22" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="Y22" s="19" t="s">
+      <c r="Y22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="12">
         <v>330011</v>
       </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
         <v>3</v>
       </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19">
-        <v>2</v>
-      </c>
-      <c r="J23" s="20">
-        <v>1</v>
-      </c>
-      <c r="K23" s="19">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
         <v>4</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="14">
         <v>3</v>
       </c>
-      <c r="N23" s="22">
-        <v>1</v>
-      </c>
-      <c r="O23" s="19">
-        <v>0</v>
-      </c>
-      <c r="P23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <v>0</v>
-      </c>
-      <c r="T23" s="22">
-        <v>0</v>
-      </c>
-      <c r="U23" s="23">
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
         <v>910044</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="12">
         <v>900228</v>
       </c>
-      <c r="W23" s="24" t="s">
+      <c r="W23" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X23" s="24" t="s">
+      <c r="X23" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Y23" s="19" t="s">
+      <c r="Y23" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>19</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="12">
         <v>330011</v>
       </c>
-      <c r="F24" s="19">
-        <v>2</v>
-      </c>
-      <c r="G24" s="19">
+      <c r="F24" s="12">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12">
         <v>5</v>
       </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>2</v>
-      </c>
-      <c r="J24" s="20">
-        <v>1</v>
-      </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
         <v>4</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="14">
         <v>5</v>
       </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="19">
-        <v>0</v>
-      </c>
-      <c r="P24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <v>0</v>
-      </c>
-      <c r="T24" s="22">
-        <v>0</v>
-      </c>
-      <c r="U24" s="23">
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
         <v>910044</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="12">
         <v>900228</v>
       </c>
-      <c r="W24" s="24" t="s">
+      <c r="W24" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X24" s="24" t="s">
+      <c r="X24" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="Y24" s="19" t="s">
+      <c r="Y24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B25" s="18">
+      <c r="B25" s="11">
         <v>20</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="12">
         <v>330012</v>
       </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19">
-        <v>2</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20">
-        <v>2</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>2</v>
+      </c>
+      <c r="K25" s="12">
         <v>320014</v>
       </c>
-      <c r="L25" s="21">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
         <v>0.4</v>
       </c>
-      <c r="O25" s="19">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <v>0</v>
-      </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="23">
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
         <v>910045</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="12">
         <v>900229</v>
       </c>
-      <c r="W25" s="24" t="s">
+      <c r="W25" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="Y25" s="19" t="s">
+      <c r="Y25" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B26" s="18">
+      <c r="B26" s="11">
         <v>21</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="12">
         <v>330012</v>
       </c>
-      <c r="F26" s="19">
-        <v>2</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12">
         <v>4</v>
       </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="20">
-        <v>2</v>
-      </c>
-      <c r="K26" s="19">
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>2</v>
+      </c>
+      <c r="K26" s="12">
         <v>320015</v>
       </c>
-      <c r="L26" s="21">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
         <v>0.65</v>
       </c>
-      <c r="O26" s="19">
-        <v>0</v>
-      </c>
-      <c r="P26" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <v>0</v>
-      </c>
-      <c r="T26" s="22">
-        <v>0</v>
-      </c>
-      <c r="U26" s="23">
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
         <v>910045</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="12">
         <v>900229</v>
       </c>
-      <c r="W26" s="24" t="s">
+      <c r="W26" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="X26" s="24" t="s">
+      <c r="X26" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="Y26" s="19" t="s">
+      <c r="Y26" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>22</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="12">
         <v>330013</v>
       </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
         <v>3</v>
       </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
         <v>4</v>
       </c>
-      <c r="J27" s="20">
-        <v>1</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12">
         <v>320004</v>
       </c>
-      <c r="L27" s="21">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
         <v>6</v>
       </c>
-      <c r="N27" s="22">
-        <v>1</v>
-      </c>
-      <c r="O27" s="19">
-        <v>0</v>
-      </c>
-      <c r="P27" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>0</v>
-      </c>
-      <c r="R27" s="21">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <v>0</v>
-      </c>
-      <c r="T27" s="22">
-        <v>0</v>
-      </c>
-      <c r="U27" s="23">
+      <c r="N27" s="15">
+        <v>1</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
         <v>910046</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="12">
         <v>900230</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W27" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="Y27" s="19" t="s">
+      <c r="Y27" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>23</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="12">
         <v>330013</v>
       </c>
-      <c r="F28" s="19">
-        <v>2</v>
-      </c>
-      <c r="G28" s="19">
+      <c r="F28" s="12">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12">
         <v>5</v>
       </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="19">
+      <c r="J28" s="13">
+        <v>1</v>
+      </c>
+      <c r="K28" s="12">
         <v>320005</v>
       </c>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
         <v>6</v>
       </c>
-      <c r="N28" s="22">
-        <v>1</v>
-      </c>
-      <c r="O28" s="19">
-        <v>0</v>
-      </c>
-      <c r="P28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>0</v>
-      </c>
-      <c r="R28" s="21">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <v>0</v>
-      </c>
-      <c r="T28" s="22">
-        <v>0</v>
-      </c>
-      <c r="U28" s="23">
+      <c r="N28" s="15">
+        <v>1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
         <v>910046</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="12">
         <v>900230</v>
       </c>
-      <c r="W28" s="24" t="s">
+      <c r="W28" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X28" s="24" t="s">
+      <c r="X28" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="Y28" s="19" t="s">
+      <c r="Y28" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>24</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="12">
         <v>330014</v>
       </c>
-      <c r="F29" s="19">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19">
-        <v>2</v>
-      </c>
-      <c r="H29" s="19">
-        <v>1</v>
-      </c>
-      <c r="I29" s="19">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19">
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12">
         <v>320022</v>
       </c>
-      <c r="L29" s="21">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0</v>
-      </c>
-      <c r="P29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0</v>
-      </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="23">
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
         <v>910047</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="12">
         <v>900231</v>
       </c>
-      <c r="W29" s="24" t="s">
+      <c r="W29" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="X29" s="24" t="s">
+      <c r="X29" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="Y29" s="19" t="s">
+      <c r="Y29" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B30" s="18">
+      <c r="B30" s="11">
         <v>25</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="12">
         <v>330014</v>
       </c>
-      <c r="F30" s="19">
-        <v>2</v>
-      </c>
-      <c r="G30" s="19">
+      <c r="F30" s="12">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12">
         <v>4</v>
       </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20">
-        <v>1</v>
-      </c>
-      <c r="K30" s="19">
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
         <v>320023</v>
       </c>
-      <c r="L30" s="21">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>1</v>
-      </c>
-      <c r="O30" s="19">
-        <v>0</v>
-      </c>
-      <c r="P30" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>0</v>
-      </c>
-      <c r="R30" s="21">
-        <v>0</v>
-      </c>
-      <c r="S30" s="21">
-        <v>0</v>
-      </c>
-      <c r="T30" s="22">
-        <v>0</v>
-      </c>
-      <c r="U30" s="23">
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>1</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
         <v>910047</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="12">
         <v>900231</v>
       </c>
-      <c r="W30" s="24" t="s">
+      <c r="W30" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="X30" s="24" t="s">
+      <c r="X30" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Y30" s="19" t="s">
+      <c r="Y30" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>26</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="12">
         <v>330015</v>
       </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19">
-        <v>2</v>
-      </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1</v>
-      </c>
-      <c r="J31" s="20">
-        <v>2</v>
-      </c>
-      <c r="K31" s="19">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
         <v>320010</v>
       </c>
-      <c r="L31" s="21">
-        <v>0</v>
-      </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
-        <v>1</v>
-      </c>
-      <c r="O31" s="19">
-        <v>0</v>
-      </c>
-      <c r="P31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>0</v>
-      </c>
-      <c r="R31" s="21">
-        <v>0</v>
-      </c>
-      <c r="S31" s="21">
-        <v>0</v>
-      </c>
-      <c r="T31" s="22">
-        <v>0</v>
-      </c>
-      <c r="U31" s="23">
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <v>1</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
         <v>910048</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="12">
         <v>900232</v>
       </c>
-      <c r="W31" s="24" t="s">
+      <c r="W31" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="X31" s="24" t="s">
+      <c r="X31" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="Y31" s="19" t="s">
+      <c r="Y31" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>27</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="12">
         <v>330015</v>
       </c>
-      <c r="F32" s="19">
-        <v>2</v>
-      </c>
-      <c r="G32" s="19">
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12">
         <v>4</v>
       </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
-      <c r="I32" s="19">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20">
-        <v>2</v>
-      </c>
-      <c r="K32" s="19">
+      <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
         <v>320011</v>
       </c>
-      <c r="L32" s="21">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>1</v>
-      </c>
-      <c r="O32" s="19">
-        <v>0</v>
-      </c>
-      <c r="P32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>0</v>
-      </c>
-      <c r="R32" s="21">
-        <v>0</v>
-      </c>
-      <c r="S32" s="21">
-        <v>0</v>
-      </c>
-      <c r="T32" s="22">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15">
+        <v>1</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
         <v>910048</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="12">
         <v>900232</v>
       </c>
-      <c r="W32" s="24" t="s">
+      <c r="W32" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="X32" s="24" t="s">
+      <c r="X32" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="Y32" s="19" t="s">
+      <c r="Y32" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>28</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="12">
         <v>330016</v>
       </c>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="19">
-        <v>2</v>
-      </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="19">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12">
         <v>3</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="13">
         <v>3</v>
       </c>
-      <c r="K33" s="19">
-        <v>0</v>
-      </c>
-      <c r="L33" s="21">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="14">
+        <v>1</v>
+      </c>
+      <c r="N33" s="15">
         <v>0.25</v>
       </c>
-      <c r="O33" s="19">
-        <v>0</v>
-      </c>
-      <c r="P33" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="21">
-        <v>0</v>
-      </c>
-      <c r="R33" s="21">
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="23">
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="R33" s="14">
+        <v>0</v>
+      </c>
+      <c r="S33" s="14">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
         <v>910049</v>
       </c>
-      <c r="V33" s="19">
+      <c r="V33" s="12">
         <v>900233</v>
       </c>
-      <c r="W33" s="24" t="s">
+      <c r="W33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="X33" s="24" t="s">
+      <c r="X33" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Y33" s="19" t="s">
+      <c r="Y33" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>29</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="12">
         <v>330016</v>
       </c>
-      <c r="F34" s="19">
-        <v>2</v>
-      </c>
-      <c r="G34" s="19">
+      <c r="F34" s="12">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12">
         <v>3</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19">
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12">
         <v>3</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="13">
         <v>3</v>
       </c>
-      <c r="K34" s="19">
-        <v>0</v>
-      </c>
-      <c r="L34" s="21">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="15">
         <v>0.4</v>
       </c>
-      <c r="O34" s="19">
-        <v>0</v>
-      </c>
-      <c r="P34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0</v>
-      </c>
-      <c r="R34" s="21">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21">
-        <v>0</v>
-      </c>
-      <c r="T34" s="22">
-        <v>0</v>
-      </c>
-      <c r="U34" s="23">
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>0</v>
+      </c>
+      <c r="R34" s="14">
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
         <v>910049</v>
       </c>
-      <c r="V34" s="19">
+      <c r="V34" s="12">
         <v>900233</v>
       </c>
-      <c r="W34" s="24" t="s">
+      <c r="W34" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="X34" s="24" t="s">
+      <c r="X34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Y34" s="19" t="s">
+      <c r="Y34" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:25" ht="49.5" customHeight="1">
-      <c r="B35" s="18">
+      <c r="B35" s="11">
         <v>30</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="12">
         <v>330017</v>
       </c>
-      <c r="F35" s="19">
-        <v>1</v>
-      </c>
-      <c r="G35" s="19">
-        <v>2</v>
-      </c>
-      <c r="H35" s="19">
-        <v>2</v>
-      </c>
-      <c r="I35" s="19">
-        <v>1</v>
-      </c>
-      <c r="J35" s="20">
-        <v>1</v>
-      </c>
-      <c r="K35" s="19">
+      <c r="F35" s="12">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
         <v>320003</v>
       </c>
-      <c r="L35" s="21">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21">
-        <v>0</v>
-      </c>
-      <c r="N35" s="22">
-        <v>1</v>
-      </c>
-      <c r="O35" s="19">
-        <v>0</v>
-      </c>
-      <c r="P35" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>0</v>
-      </c>
-      <c r="R35" s="21">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21">
-        <v>0</v>
-      </c>
-      <c r="T35" s="22">
-        <v>0</v>
-      </c>
-      <c r="U35" s="23">
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>1</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
         <v>910050</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V35" s="12">
         <v>900234</v>
       </c>
-      <c r="W35" s="24" t="s">
+      <c r="W35" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="X35" s="24" t="s">
+      <c r="X35" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="Y35" s="19" t="s">
+      <c r="Y35" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:25">
-      <c r="B36" s="25"/>
+      <c r="B36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4369,12 +4375,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4384,7 +4384,7 @@
     <brk id="35" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="1048575" man="1"/>
+    <brk id="2" max="1048575" man="1"/>
     <brk id="24" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CACF4C-619E-4FE2-AE58-E67B967F8779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0EC382-94BB-4533-A516-F1A568FB5E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Synergy_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Synergy_Table!$B$5:$Y$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1854,7 +1857,10 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4360,13 +4366,8 @@
       <c r="B36" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4375,6 +4376,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0EC382-94BB-4533-A516-F1A568FB5E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101C245-82AE-49B0-B463-2B6F866620FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Synergy_Table" sheetId="1" r:id="rId1"/>
@@ -1857,37 +1857,37 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="65.375" customWidth="1"/>
-    <col min="25" max="25" width="36.125" customWidth="1"/>
+    <col min="24" max="24" width="65.3984375" customWidth="1"/>
+    <col min="25" max="25" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
@@ -4368,6 +4368,12 @@
   </sheetData>
   <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4376,12 +4382,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101C245-82AE-49B0-B463-2B6F866620FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBBE29-A8AB-46E3-A418-63EFFA888F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Synergy_Table" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,8 @@
             <charset val="129"/>
           </rPr>
           <t>1 = 동일한 시너지
-2 = 동일한 라인</t>
+2 = 동일한 라인
+3 = 전체 타워(예외 처리)</t>
         </r>
       </text>
     </comment>
@@ -1857,37 +1858,37 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="65.3984375" customWidth="1"/>
-    <col min="25" max="25" width="36.09765625" customWidth="1"/>
+    <col min="24" max="24" width="65.375" customWidth="1"/>
+    <col min="25" max="25" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
@@ -2310,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12">
         <v>5</v>
@@ -2384,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12">
         <v>5</v>
@@ -4368,12 +4369,6 @@
   </sheetData>
   <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4382,6 +4377,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CBBE29-A8AB-46E3-A418-63EFFA888F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD7AE4-41A0-480D-8517-09172FA82235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1456,13 +1456,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1540,6 +1555,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,11 +1878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}">
   <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1878,13 +1899,13 @@
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="65.375" customWidth="1"/>
@@ -4169,8 +4190,8 @@
       <c r="J33" s="13">
         <v>3</v>
       </c>
-      <c r="K33" s="12">
-        <v>0</v>
+      <c r="K33" s="27">
+        <v>320088</v>
       </c>
       <c r="L33" s="14">
         <v>0</v>
@@ -4243,8 +4264,8 @@
       <c r="J34" s="13">
         <v>3</v>
       </c>
-      <c r="K34" s="12">
-        <v>0</v>
+      <c r="K34" s="26">
+        <v>320089</v>
       </c>
       <c r="L34" s="14">
         <v>0</v>
@@ -4369,6 +4390,12 @@
   </sheetData>
   <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4377,12 +4404,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD7AE4-41A0-480D-8517-09172FA82235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF244983-A2F0-45BD-84AD-FB0A524628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="145">
   <si>
     <t>번호</t>
   </si>
@@ -857,9 +857,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>거인1</t>
-  </si>
-  <si>
     <t>Synergy001</t>
   </si>
   <si>
@@ -870,9 +867,6 @@
 (3) 같은 구역 아군 공격력 50 증가</t>
   </si>
   <si>
-    <t>거인2</t>
-  </si>
-  <si>
     <t>Synergy002</t>
   </si>
   <si>
@@ -880,9 +874,6 @@
 &lt;b&gt;(3) 같은 구역 아군 공격력 50 증가&lt;/b&gt;</t>
   </si>
   <si>
-    <t>난쟁이1</t>
-  </si>
-  <si>
     <t>Synergy003</t>
   </si>
   <si>
@@ -896,9 +887,6 @@
     <t>예외처리로 어디에 놓든 상관X</t>
   </si>
   <si>
-    <t>난쟁이2</t>
-  </si>
-  <si>
     <t>Synergy004</t>
   </si>
   <si>
@@ -906,9 +894,6 @@
 &lt;b&gt;(3) 추가 골드 +5&lt;/b&gt;</t>
   </si>
   <si>
-    <t>불정령1</t>
-  </si>
-  <si>
     <t>Synergy005</t>
   </si>
   <si>
@@ -919,9 +904,6 @@
 (3)  50% 확률로 화상효과 부여 / 초 당(데미지X0.45)의 피해</t>
   </si>
   <si>
-    <t>불정령2</t>
-  </si>
-  <si>
     <t>Synergy006</t>
   </si>
   <si>
@@ -932,9 +914,6 @@
 &lt;b&gt;(3)  50% 확률로 화상효과 부여 / 초 당(데미지X0.45)의 피해&lt;/b&gt;</t>
   </si>
   <si>
-    <t>마수1</t>
-  </si>
-  <si>
     <t>Synergy007</t>
   </si>
   <si>
@@ -945,9 +924,6 @@
 (4) 체력이 50%이하인 적에게 치명타피해</t>
   </si>
   <si>
-    <t>마수2</t>
-  </si>
-  <si>
     <t>Synergy008</t>
   </si>
   <si>
@@ -955,9 +931,6 @@
 &lt;b&gt;(4) 체력이 50%이하인 적에게 치명타피해&lt;/b&gt;</t>
   </si>
   <si>
-    <t>유령1</t>
-  </si>
-  <si>
     <t>Synergy009</t>
   </si>
   <si>
@@ -968,9 +941,6 @@
 (4) 방어력 40% 감소</t>
   </si>
   <si>
-    <t>유령2</t>
-  </si>
-  <si>
     <t>Synergy010</t>
   </si>
   <si>
@@ -978,9 +948,6 @@
 &lt;b&gt;(4) 방어력 40% 감소&lt;/b&gt;</t>
   </si>
   <si>
-    <t>골렘1</t>
-  </si>
-  <si>
     <t>Synergy011</t>
   </si>
   <si>
@@ -988,9 +955,6 @@
   </si>
   <si>
     <t>&lt;b&gt;(2)  3초 기절&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>야수1</t>
   </si>
   <si>
     <t>Synergy012</t>
@@ -1003,9 +967,6 @@
 &lt;b&gt;(3) 60%의 확률로 공격속도 25% 증가 / 초 당(데미지X0.25)의 피해 3중첩&lt;/b&gt;</t>
   </si>
   <si>
-    <t>야수2</t>
-  </si>
-  <si>
     <t>Synergy013</t>
   </si>
   <si>
@@ -1013,9 +974,6 @@
 (3) 60%의 확률로 공격속도 25% 증가 / 초 당(데미지X0.25)의 피해 3중첩</t>
   </si>
   <si>
-    <t>마인1</t>
-  </si>
-  <si>
     <t>Synergy014</t>
   </si>
   <si>
@@ -1026,9 +984,6 @@
 (3)같은 구역 아군 사거리 40% 증가</t>
   </si>
   <si>
-    <t>마인2</t>
-  </si>
-  <si>
     <t>Synergy015</t>
   </si>
   <si>
@@ -1036,9 +991,6 @@
 &lt;b&gt;(3)같은 구역 아군 사거리 40% 증가&lt;/b&gt;</t>
   </si>
   <si>
-    <t>드래곤1</t>
-  </si>
-  <si>
     <t>Synergy016</t>
   </si>
   <si>
@@ -1048,9 +1000,6 @@
     <t>&lt;b&gt;(1) 아군 드래곤의 공격이 범위 공격 적용&lt;/b&gt;</t>
   </si>
   <si>
-    <t>흑요정1</t>
-  </si>
-  <si>
     <t>Synergy017</t>
   </si>
   <si>
@@ -1058,9 +1007,6 @@
   </si>
   <si>
     <t>&lt;b&gt;(2) 10%의 확률로 즉사&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>사냥꾼1</t>
   </si>
   <si>
     <t>Synergy018</t>
@@ -1073,9 +1019,6 @@
 (5) 추가 공격 5회</t>
   </si>
   <si>
-    <t>사냥꾼2</t>
-  </si>
-  <si>
     <t>Synergy019</t>
   </si>
   <si>
@@ -1083,9 +1026,6 @@
 &lt;b&gt;(5) 추가 공격 5회&lt;/b&gt;</t>
   </si>
   <si>
-    <t>흑마법사1</t>
-  </si>
-  <si>
     <t>Synergy020</t>
   </si>
   <si>
@@ -1096,9 +1036,6 @@
 (4) 65%확률로 이동속도 45% 감소</t>
   </si>
   <si>
-    <t>흑마법사2</t>
-  </si>
-  <si>
     <t>Synergy021</t>
   </si>
   <si>
@@ -1106,9 +1043,6 @@
 &lt;b&gt;(4) 65%확률로 이동속도 45% 감소&lt;/b&gt;</t>
   </si>
   <si>
-    <t>광전사1</t>
-  </si>
-  <si>
     <t>Synergy022</t>
   </si>
   <si>
@@ -1120,9 +1054,6 @@
 (5) 1 중첩 당 공격력 10, 공격속도 10% 증가 (최대 6중첩)</t>
   </si>
   <si>
-    <t>광전사2</t>
-  </si>
-  <si>
     <t>Synergy023</t>
   </si>
   <si>
@@ -1130,9 +1061,6 @@
 &lt;b&gt;(5) 1 중첩 당 공격력 10, 공격속도 10% 증가 (최대 6중첩)&lt;/b&gt;</t>
   </si>
   <si>
-    <t>암살자1</t>
-  </si>
-  <si>
     <t>Synergy024</t>
   </si>
   <si>
@@ -1143,9 +1071,6 @@
 (4)아군 암살자  치명타확률 30% 및 치명타피해량 50% 증가</t>
   </si>
   <si>
-    <t>암살자2</t>
-  </si>
-  <si>
     <t>Synergy025</t>
   </si>
   <si>
@@ -1153,9 +1078,6 @@
 &lt;b&gt;(4)아군 암살자 치명타확률 30% 및 치명타피해량 50% 증가&lt;/b&gt;</t>
   </si>
   <si>
-    <t>주술사1</t>
-  </si>
-  <si>
     <t>Synergy026</t>
   </si>
   <si>
@@ -1166,9 +1088,6 @@
 (4) 초 당 (데미지X0.3)의 피해 및 이동속도 30% 감소</t>
   </si>
   <si>
-    <t>주술사2</t>
-  </si>
-  <si>
     <t>Synergy027</t>
   </si>
   <si>
@@ -1179,9 +1098,6 @@
 &lt;b&gt;(4) 초 당 (데미지X0.3)의 피해 및 이동속도 30% 감소&lt;/b&gt;</t>
   </si>
   <si>
-    <t>가디언1</t>
-  </si>
-  <si>
     <t>Synergy028</t>
   </si>
   <si>
@@ -1192,9 +1108,6 @@
 (3) 40% 확률로 쿨타임 1초 감소</t>
   </si>
   <si>
-    <t>가디언2</t>
-  </si>
-  <si>
     <t>Synergy029</t>
   </si>
   <si>
@@ -1202,9 +1115,6 @@
 &lt;b&gt;(3) 40% 확률로 쿨타임 1초 감소&lt;/b&gt;</t>
   </si>
   <si>
-    <t>군단장1</t>
-  </si>
-  <si>
     <t>Synergy030</t>
   </si>
   <si>
@@ -1212,6 +1122,74 @@
   </si>
   <si>
     <t>&lt;b&gt;(2) 공격력 50% 증가 공격속도 25% 증가&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>거인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>난쟁이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑요정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑마법사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주술사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가디언</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군단장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1535,6 +1513,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,12 +1539,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1879,10 +1857,10 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1913,67 +1891,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="23" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="19" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2010,11 +1988,11 @@
       <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" s="5" t="s">
@@ -2169,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="12">
         <v>330001</v>
@@ -2229,10 +2207,10 @@
         <v>900218</v>
       </c>
       <c r="W6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="Y6" s="12" t="s">
         <v>47</v>
@@ -2243,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="12">
         <v>330001</v>
@@ -2303,10 +2281,10 @@
         <v>900218</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y7" s="12" t="s">
         <v>47</v>
@@ -2317,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="12">
         <v>330002</v>
@@ -2377,13 +2355,13 @@
         <v>900219</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="49.5" customHeight="1">
@@ -2391,10 +2369,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" s="12">
         <v>330002</v>
@@ -2451,13 +2429,13 @@
         <v>900219</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="49.5" customHeight="1">
@@ -2465,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" s="12">
         <v>330003</v>
@@ -2525,10 +2503,10 @@
         <v>900220</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>47</v>
@@ -2539,10 +2517,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="12">
         <v>330003</v>
@@ -2599,10 +2577,10 @@
         <v>900220</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Y11" s="12" t="s">
         <v>47</v>
@@ -2613,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" s="12">
         <v>330004</v>
@@ -2673,10 +2651,10 @@
         <v>900221</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="12" t="s">
         <v>47</v>
@@ -2687,10 +2665,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E13" s="12">
         <v>330004</v>
@@ -2747,10 +2725,10 @@
         <v>900221</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>47</v>
@@ -2761,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E14" s="12">
         <v>330005</v>
@@ -2821,10 +2799,10 @@
         <v>900222</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Y14" s="12" t="s">
         <v>47</v>
@@ -2835,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E15" s="12">
         <v>330005</v>
@@ -2895,10 +2873,10 @@
         <v>900222</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Y15" s="12" t="s">
         <v>47</v>
@@ -2909,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E16" s="12">
         <v>330006</v>
@@ -2969,10 +2947,10 @@
         <v>900223</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="Y16" s="12" t="s">
         <v>47</v>
@@ -2983,10 +2961,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E17" s="12">
         <v>330007</v>
@@ -3043,10 +3021,10 @@
         <v>900224</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="X17" s="17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="Y17" s="12" t="s">
         <v>47</v>
@@ -3057,10 +3035,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E18" s="12">
         <v>330007</v>
@@ -3117,10 +3095,10 @@
         <v>900224</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>47</v>
@@ -3131,10 +3109,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E19" s="12">
         <v>330008</v>
@@ -3191,10 +3169,10 @@
         <v>900225</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="X19" s="17" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>47</v>
@@ -3205,10 +3183,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E20" s="12">
         <v>330008</v>
@@ -3265,10 +3243,10 @@
         <v>900225</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>47</v>
@@ -3279,10 +3257,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E21" s="12">
         <v>330009</v>
@@ -3339,10 +3317,10 @@
         <v>900226</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="X21" s="17" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="Y21" s="12" t="s">
         <v>47</v>
@@ -3353,10 +3331,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E22" s="12">
         <v>330010</v>
@@ -3413,10 +3391,10 @@
         <v>900227</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>47</v>
@@ -3427,10 +3405,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E23" s="12">
         <v>330011</v>
@@ -3487,10 +3465,10 @@
         <v>900228</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="X23" s="17" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="Y23" s="12" t="s">
         <v>47</v>
@@ -3501,10 +3479,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E24" s="12">
         <v>330011</v>
@@ -3561,10 +3539,10 @@
         <v>900228</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="Y24" s="12" t="s">
         <v>47</v>
@@ -3575,10 +3553,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E25" s="12">
         <v>330012</v>
@@ -3635,10 +3613,10 @@
         <v>900229</v>
       </c>
       <c r="W25" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="X25" s="17" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="12" t="s">
         <v>47</v>
@@ -3649,10 +3627,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E26" s="12">
         <v>330012</v>
@@ -3709,10 +3687,10 @@
         <v>900229</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="X26" s="17" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Y26" s="12" t="s">
         <v>47</v>
@@ -3723,10 +3701,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E27" s="12">
         <v>330013</v>
@@ -3783,10 +3761,10 @@
         <v>900230</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="Y27" s="12" t="s">
         <v>47</v>
@@ -3797,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E28" s="12">
         <v>330013</v>
@@ -3857,10 +3835,10 @@
         <v>900230</v>
       </c>
       <c r="W28" s="17" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="X28" s="17" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>47</v>
@@ -3871,10 +3849,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E29" s="12">
         <v>330014</v>
@@ -3931,10 +3909,10 @@
         <v>900231</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>47</v>
@@ -3945,10 +3923,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E30" s="12">
         <v>330014</v>
@@ -4005,10 +3983,10 @@
         <v>900231</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>47</v>
@@ -4019,10 +3997,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E31" s="12">
         <v>330015</v>
@@ -4079,10 +4057,10 @@
         <v>900232</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="Y31" s="12" t="s">
         <v>47</v>
@@ -4093,10 +4071,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E32" s="12">
         <v>330015</v>
@@ -4153,10 +4131,10 @@
         <v>900232</v>
       </c>
       <c r="W32" s="17" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="X32" s="17" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>47</v>
@@ -4167,10 +4145,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E33" s="12">
         <v>330016</v>
@@ -4190,7 +4168,7 @@
       <c r="J33" s="13">
         <v>3</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="20">
         <v>320088</v>
       </c>
       <c r="L33" s="14">
@@ -4227,10 +4205,10 @@
         <v>900233</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>47</v>
@@ -4241,10 +4219,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="E34" s="12">
         <v>330016</v>
@@ -4264,7 +4242,7 @@
       <c r="J34" s="13">
         <v>3</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="19">
         <v>320089</v>
       </c>
       <c r="L34" s="14">
@@ -4301,10 +4279,10 @@
         <v>900233</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="X34" s="17" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="Y34" s="12" t="s">
         <v>47</v>
@@ -4315,10 +4293,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E35" s="12">
         <v>330017</v>
@@ -4375,10 +4353,10 @@
         <v>900234</v>
       </c>
       <c r="W35" s="17" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="X35" s="17" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>47</v>
@@ -4390,12 +4368,6 @@
   </sheetData>
   <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4404,6 +4376,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Table_List/06_Synergy_Table.xlsx
+++ b/Documents/Table_List/06_Synergy_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF244983-A2F0-45BD-84AD-FB0A524628B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1B66A-C684-49A1-B4E4-14D7C29AD411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9484428-D8B0-4ABC-831A-D629A43694FB}"/>
   </bookViews>
@@ -1857,10 +1857,10 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3435,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="15">
         <v>1</v>
@@ -3509,7 +3509,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" s="15">
         <v>1</v>
@@ -4368,6 +4368,12 @@
   </sheetData>
   <autoFilter ref="B5:Y5" xr:uid="{67792D3C-DF15-4788-9B06-3C94F21082EA}"/>
   <mergeCells count="14">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -4376,12 +4382,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
